--- a/尹会生-零基础学 Python（2023 版）120讲/Zero_foundation_learning_of_Python/Chapter_12/code95/example.xlsx
+++ b/尹会生-零基础学 Python（2023 版）120讲/Zero_foundation_learning_of_Python/Chapter_12/code95/example.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A54"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,196 +429,46 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>45533.614618125</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42</v>
+      </c>
+    </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>45533.614618125</v>
       </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>45533.614618125</v>
+      </c>
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45533.614618125</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>45533.614618125</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>45533.614618125</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>45533.614618125</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45533.614618125</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45533.614618125</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45533.614618125</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45533.614618125</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
     </row>
